--- a/src/co/jp/part3/SCHOOL_UML_20230126.xlsx
+++ b/src/co/jp/part3/SCHOOL_UML_20230126.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7e354eabc4fa991d/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="169" documentId="8_{A9C659D3-7B2D-F247-A4E4-CF71C433EE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33BE7395-3BC1-214F-9DEB-67FDB43DF6FC}"/>
+  <xr:revisionPtr revIDLastSave="195" documentId="8_{A9C659D3-7B2D-F247-A4E4-CF71C433EE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02166DEA-EE7E-F34B-9E96-E36F007B3145}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="17500" xr2:uid="{15AAD26D-D079-48CE-A9B7-47E2035288BC}"/>
+    <workbookView xWindow="10080" yWindow="500" windowWidth="20740" windowHeight="17500" xr2:uid="{15AAD26D-D079-48CE-A9B7-47E2035288BC}"/>
   </bookViews>
   <sheets>
     <sheet name="UML" sheetId="3" r:id="rId1"/>
@@ -314,8 +314,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5644242" y="1034825"/>
-          <a:ext cx="2272408" cy="3958814"/>
+          <a:off x="5771242" y="1059532"/>
+          <a:ext cx="2324363" cy="4045867"/>
           <a:chOff x="4833140" y="1698171"/>
           <a:chExt cx="1926772" cy="1904140"/>
         </a:xfrm>
@@ -991,8 +991,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1895929" y="5262880"/>
-          <a:ext cx="1884782" cy="1351280"/>
+          <a:off x="1936338" y="5383645"/>
+          <a:ext cx="1925191" cy="1414319"/>
           <a:chOff x="4822371" y="1698172"/>
           <a:chExt cx="1935582" cy="1600200"/>
         </a:xfrm>
@@ -1282,8 +1282,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9628414" y="5430520"/>
-          <a:ext cx="1884782" cy="1351280"/>
+          <a:off x="9842005" y="5560291"/>
+          <a:ext cx="1930964" cy="1414318"/>
           <a:chOff x="4822371" y="1698172"/>
           <a:chExt cx="1935582" cy="1600200"/>
         </a:xfrm>
@@ -1671,8 +1671,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1846658" y="2684053"/>
-          <a:ext cx="1874182" cy="1344385"/>
+          <a:off x="1887067" y="2743858"/>
+          <a:ext cx="1914591" cy="1389413"/>
           <a:chOff x="4833257" y="1698172"/>
           <a:chExt cx="1924696" cy="864909"/>
         </a:xfrm>
@@ -1982,8 +1982,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9192698" y="3169922"/>
-          <a:ext cx="1874181" cy="1391920"/>
+          <a:off x="9400516" y="3247738"/>
+          <a:ext cx="1914590" cy="1418937"/>
           <a:chOff x="4833257" y="1698173"/>
           <a:chExt cx="1924696" cy="899081"/>
         </a:xfrm>
@@ -2409,16 +2409,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>107</xdr:col>
+      <xdr:col>115</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>163</xdr:col>
+      <xdr:col>171</xdr:col>
       <xdr:colOff>7944</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>137583</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2452,23 +2452,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>38484</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>96213</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>227948</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>97694</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>230909</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>169046</xdr:rowOff>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>32564</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>1937566</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
+        <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0BCB229-4975-2CB4-94C7-BC3320A78B01}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25A54959-8767-7CCD-A02E-62306E9D0621}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2484,8 +2484,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1289242" y="8524395"/>
-          <a:ext cx="10698788" cy="10155863"/>
+          <a:off x="1791025" y="8759745"/>
+          <a:ext cx="13351283" cy="10013462"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2495,6 +2495,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2794,10 +2798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD903C4C-E534-4A83-8DE1-C435133C73B0}">
-  <dimension ref="D2:AY82"/>
+  <dimension ref="D2:BG82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" zoomScale="125" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AI9" sqref="AI9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="44" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="BN46" sqref="BN46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="15"/>
@@ -2805,13 +2809,13 @@
     <col min="1" max="16384" width="3.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:51" ht="31">
+    <row r="2" spans="4:59" ht="31">
       <c r="D2" s="12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="4:51" ht="16" thickBot="1"/>
-    <row r="4" spans="4:51">
+    <row r="3" spans="4:59" ht="16" thickBot="1"/>
+    <row r="4" spans="4:59">
       <c r="D4" s="2"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -2859,113 +2863,121 @@
       <c r="AV4" s="3"/>
       <c r="AW4" s="3"/>
       <c r="AX4" s="3"/>
-      <c r="AY4" s="4"/>
-    </row>
-    <row r="5" spans="4:51">
+      <c r="AY4" s="3"/>
+      <c r="AZ4" s="3"/>
+      <c r="BA4" s="3"/>
+      <c r="BB4" s="3"/>
+      <c r="BC4" s="3"/>
+      <c r="BD4" s="3"/>
+      <c r="BE4" s="3"/>
+      <c r="BF4" s="3"/>
+      <c r="BG4" s="4"/>
+    </row>
+    <row r="5" spans="4:59">
       <c r="D5" s="5"/>
-      <c r="AY5" s="6"/>
-    </row>
-    <row r="6" spans="4:51" ht="73" customHeight="1">
+      <c r="BG5" s="6"/>
+    </row>
+    <row r="6" spans="4:59" ht="73" customHeight="1">
       <c r="D6" s="5"/>
-      <c r="AY6" s="6"/>
-    </row>
-    <row r="7" spans="4:51">
+      <c r="BG6" s="6"/>
+    </row>
+    <row r="7" spans="4:59">
       <c r="D7" s="5"/>
-      <c r="AY7" s="6"/>
-    </row>
-    <row r="8" spans="4:51">
+      <c r="BG7" s="6"/>
+    </row>
+    <row r="8" spans="4:59">
       <c r="D8" s="5"/>
-      <c r="AY8" s="6"/>
-    </row>
-    <row r="9" spans="4:51">
+      <c r="BG8" s="6"/>
+    </row>
+    <row r="9" spans="4:59">
       <c r="D9" s="5"/>
-      <c r="AY9" s="6"/>
-    </row>
-    <row r="10" spans="4:51">
+      <c r="BG9" s="6"/>
+    </row>
+    <row r="10" spans="4:59">
       <c r="D10" s="5"/>
-      <c r="AY10" s="6"/>
-    </row>
-    <row r="11" spans="4:51">
+      <c r="BG10" s="6"/>
+    </row>
+    <row r="11" spans="4:59">
       <c r="D11" s="5"/>
-      <c r="AY11" s="6"/>
-    </row>
-    <row r="12" spans="4:51">
+      <c r="BG11" s="6"/>
+    </row>
+    <row r="12" spans="4:59">
       <c r="D12" s="5"/>
-      <c r="AY12" s="6"/>
-    </row>
-    <row r="13" spans="4:51">
+      <c r="BG12" s="6"/>
+    </row>
+    <row r="13" spans="4:59">
       <c r="D13" s="5"/>
-      <c r="AY13" s="6"/>
-    </row>
-    <row r="14" spans="4:51">
+      <c r="BG13" s="6"/>
+    </row>
+    <row r="14" spans="4:59">
       <c r="D14" s="5"/>
-      <c r="AY14" s="6"/>
-    </row>
-    <row r="15" spans="4:51" ht="104" customHeight="1">
+      <c r="BG14" s="6"/>
+    </row>
+    <row r="15" spans="4:59" ht="104" customHeight="1">
       <c r="D15" s="5"/>
-      <c r="AY15" s="6"/>
-    </row>
-    <row r="16" spans="4:51">
+      <c r="BG15" s="6"/>
+    </row>
+    <row r="16" spans="4:59">
       <c r="D16" s="5"/>
-      <c r="AY16" s="6"/>
-    </row>
-    <row r="17" spans="4:51">
+      <c r="BG16" s="6"/>
+    </row>
+    <row r="17" spans="4:59">
       <c r="D17" s="5"/>
-      <c r="AY17" s="6"/>
-    </row>
-    <row r="18" spans="4:51">
+      <c r="BG17" s="6"/>
+    </row>
+    <row r="18" spans="4:59">
       <c r="D18" s="5"/>
-      <c r="AY18" s="6"/>
-    </row>
-    <row r="19" spans="4:51">
+      <c r="BG18" s="6"/>
+    </row>
+    <row r="19" spans="4:59">
       <c r="D19" s="5"/>
-      <c r="AY19" s="6"/>
-    </row>
-    <row r="20" spans="4:51">
+      <c r="BG19" s="6"/>
+    </row>
+    <row r="20" spans="4:59">
       <c r="D20" s="5"/>
-      <c r="AY20" s="6"/>
-    </row>
-    <row r="21" spans="4:51">
+      <c r="BG20" s="6"/>
+    </row>
+    <row r="21" spans="4:59">
       <c r="D21" s="5"/>
-      <c r="AY21" s="6"/>
-    </row>
-    <row r="22" spans="4:51">
+      <c r="BG21" s="6"/>
+    </row>
+    <row r="22" spans="4:59">
       <c r="D22" s="5"/>
-      <c r="AY22" s="6"/>
-    </row>
-    <row r="23" spans="4:51">
+      <c r="BG22" s="6"/>
+    </row>
+    <row r="23" spans="4:59">
       <c r="D23" s="5"/>
-      <c r="AY23" s="6"/>
-    </row>
-    <row r="24" spans="4:51">
+      <c r="BG23" s="6"/>
+    </row>
+    <row r="24" spans="4:59">
       <c r="D24" s="5"/>
-      <c r="AY24" s="6"/>
-    </row>
-    <row r="25" spans="4:51" ht="14" customHeight="1">
+      <c r="BG24" s="6"/>
+    </row>
+    <row r="25" spans="4:59" ht="14" customHeight="1">
       <c r="D25" s="5"/>
-      <c r="AY25" s="6"/>
-    </row>
-    <row r="26" spans="4:51" ht="8" hidden="1" customHeight="1">
+      <c r="BG25" s="6"/>
+    </row>
+    <row r="26" spans="4:59" ht="8" hidden="1" customHeight="1">
       <c r="D26" s="5"/>
-      <c r="AY26" s="6"/>
-    </row>
-    <row r="27" spans="4:51" ht="7" hidden="1" customHeight="1">
+      <c r="BG26" s="6"/>
+    </row>
+    <row r="27" spans="4:59" ht="7" hidden="1" customHeight="1">
       <c r="D27" s="5"/>
-      <c r="AY27" s="6"/>
-    </row>
-    <row r="28" spans="4:51" ht="18" hidden="1" customHeight="1">
+      <c r="BG27" s="6"/>
+    </row>
+    <row r="28" spans="4:59" ht="18" hidden="1" customHeight="1">
       <c r="D28" s="5"/>
-      <c r="AY28" s="6"/>
-    </row>
-    <row r="29" spans="4:51" ht="18" hidden="1" customHeight="1">
+      <c r="BG28" s="6"/>
+    </row>
+    <row r="29" spans="4:59" ht="18" hidden="1" customHeight="1">
       <c r="D29" s="5"/>
-      <c r="AY29" s="6"/>
-    </row>
-    <row r="30" spans="4:51" hidden="1">
+      <c r="BG29" s="6"/>
+    </row>
+    <row r="30" spans="4:59" hidden="1">
       <c r="D30" s="5"/>
-      <c r="AY30" s="6"/>
-    </row>
-    <row r="31" spans="4:51" ht="1" hidden="1" customHeight="1">
+      <c r="BG30" s="6"/>
+    </row>
+    <row r="31" spans="4:59" ht="1" hidden="1" customHeight="1">
       <c r="D31" s="5"/>
       <c r="M31" s="1">
         <v>1</v>
@@ -2973,25 +2985,25 @@
       <c r="AM31" s="1">
         <v>2</v>
       </c>
-      <c r="AY31" s="6"/>
-    </row>
-    <row r="32" spans="4:51" hidden="1">
+      <c r="BG31" s="6"/>
+    </row>
+    <row r="32" spans="4:59" hidden="1">
       <c r="D32" s="5"/>
-      <c r="AY32" s="6"/>
-    </row>
-    <row r="33" spans="4:51" hidden="1">
+      <c r="BG32" s="6"/>
+    </row>
+    <row r="33" spans="4:59" hidden="1">
       <c r="D33" s="5"/>
-      <c r="AY33" s="6"/>
-    </row>
-    <row r="34" spans="4:51" hidden="1">
+      <c r="BG33" s="6"/>
+    </row>
+    <row r="34" spans="4:59" hidden="1">
       <c r="D34" s="5"/>
-      <c r="AY34" s="6"/>
-    </row>
-    <row r="35" spans="4:51">
+      <c r="BG34" s="6"/>
+    </row>
+    <row r="35" spans="4:59">
       <c r="D35" s="5"/>
-      <c r="AY35" s="6"/>
-    </row>
-    <row r="36" spans="4:51" ht="16" thickBot="1">
+      <c r="BG35" s="6"/>
+    </row>
+    <row r="36" spans="4:59" ht="16" thickBot="1">
       <c r="D36" s="7"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
@@ -3039,9 +3051,17 @@
       <c r="AV36" s="8"/>
       <c r="AW36" s="8"/>
       <c r="AX36" s="8"/>
-      <c r="AY36" s="9"/>
-    </row>
-    <row r="38" spans="4:51" ht="1" hidden="1" customHeight="1">
+      <c r="AY36" s="8"/>
+      <c r="AZ36" s="8"/>
+      <c r="BA36" s="8"/>
+      <c r="BB36" s="8"/>
+      <c r="BC36" s="8"/>
+      <c r="BD36" s="8"/>
+      <c r="BE36" s="8"/>
+      <c r="BF36" s="8"/>
+      <c r="BG36" s="9"/>
+    </row>
+    <row r="38" spans="4:59" ht="1" hidden="1" customHeight="1">
       <c r="E38" s="11" t="s">
         <v>0</v>
       </c>
@@ -3049,12 +3069,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="4:51" ht="76" customHeight="1" thickBot="1">
+    <row r="39" spans="4:59" ht="76" customHeight="1" thickBot="1">
       <c r="F39" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="4:51">
+    <row r="40" spans="4:59">
       <c r="D40" s="2"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -3102,173 +3122,182 @@
       <c r="AV40" s="3"/>
       <c r="AW40" s="3"/>
       <c r="AX40" s="3"/>
-      <c r="AY40" s="4"/>
-    </row>
-    <row r="41" spans="4:51">
+      <c r="AY40" s="3"/>
+      <c r="AZ40" s="3"/>
+      <c r="BA40" s="3"/>
+      <c r="BB40" s="3"/>
+      <c r="BC40" s="3"/>
+      <c r="BD40" s="3"/>
+      <c r="BE40" s="3"/>
+      <c r="BF40" s="3"/>
+      <c r="BG40" s="4"/>
+    </row>
+    <row r="41" spans="4:59">
       <c r="D41" s="5"/>
-      <c r="AY41" s="6"/>
-    </row>
-    <row r="42" spans="4:51">
+      <c r="BG41" s="6"/>
+    </row>
+    <row r="42" spans="4:59">
       <c r="D42" s="5"/>
-      <c r="AY42" s="6"/>
-    </row>
-    <row r="43" spans="4:51">
+      <c r="BG42" s="6"/>
+    </row>
+    <row r="43" spans="4:59" ht="28">
       <c r="D43" s="5"/>
-      <c r="AY43" s="6"/>
-    </row>
-    <row r="44" spans="4:51">
+      <c r="AX43" s="11"/>
+      <c r="BG43" s="6"/>
+    </row>
+    <row r="44" spans="4:59">
       <c r="D44" s="5"/>
-      <c r="AY44" s="6"/>
-    </row>
-    <row r="45" spans="4:51">
+      <c r="BG44" s="6"/>
+    </row>
+    <row r="45" spans="4:59">
       <c r="D45" s="5"/>
-      <c r="AY45" s="6"/>
-    </row>
-    <row r="46" spans="4:51">
+      <c r="BG45" s="6"/>
+    </row>
+    <row r="46" spans="4:59">
       <c r="D46" s="5"/>
-      <c r="AY46" s="6"/>
-    </row>
-    <row r="47" spans="4:51">
+      <c r="BG46" s="6"/>
+    </row>
+    <row r="47" spans="4:59">
       <c r="D47" s="5"/>
-      <c r="AY47" s="6"/>
-    </row>
-    <row r="48" spans="4:51">
+      <c r="BG47" s="6"/>
+    </row>
+    <row r="48" spans="4:59">
       <c r="D48" s="5"/>
-      <c r="AY48" s="6"/>
-    </row>
-    <row r="49" spans="4:51">
+      <c r="BG48" s="6"/>
+    </row>
+    <row r="49" spans="4:59">
       <c r="D49" s="5"/>
-      <c r="AY49" s="6"/>
-    </row>
-    <row r="50" spans="4:51">
+      <c r="BG49" s="6"/>
+    </row>
+    <row r="50" spans="4:59">
       <c r="D50" s="5"/>
-      <c r="AY50" s="6"/>
-    </row>
-    <row r="51" spans="4:51">
+      <c r="BG50" s="6"/>
+    </row>
+    <row r="51" spans="4:59">
       <c r="D51" s="5"/>
-      <c r="AY51" s="6"/>
-    </row>
-    <row r="52" spans="4:51">
+      <c r="BG51" s="6"/>
+    </row>
+    <row r="52" spans="4:59">
       <c r="D52" s="5"/>
-      <c r="AY52" s="6"/>
-    </row>
-    <row r="53" spans="4:51">
+      <c r="BG52" s="6"/>
+    </row>
+    <row r="53" spans="4:59">
       <c r="D53" s="5"/>
-      <c r="AY53" s="6"/>
-    </row>
-    <row r="54" spans="4:51">
+      <c r="BG53" s="6"/>
+    </row>
+    <row r="54" spans="4:59">
       <c r="D54" s="5"/>
-      <c r="AY54" s="6"/>
-    </row>
-    <row r="55" spans="4:51">
+      <c r="BG54" s="6"/>
+    </row>
+    <row r="55" spans="4:59">
       <c r="D55" s="5"/>
-      <c r="AY55" s="6"/>
-    </row>
-    <row r="56" spans="4:51">
+      <c r="BG55" s="6"/>
+    </row>
+    <row r="56" spans="4:59">
       <c r="D56" s="5"/>
-      <c r="AY56" s="6"/>
-    </row>
-    <row r="57" spans="4:51">
+      <c r="BG56" s="6"/>
+    </row>
+    <row r="57" spans="4:59">
       <c r="D57" s="5"/>
-      <c r="AY57" s="6"/>
-    </row>
-    <row r="58" spans="4:51">
+      <c r="BG57" s="6"/>
+    </row>
+    <row r="58" spans="4:59">
       <c r="D58" s="5"/>
-      <c r="AY58" s="6"/>
-    </row>
-    <row r="59" spans="4:51">
+      <c r="BG58" s="6"/>
+    </row>
+    <row r="59" spans="4:59">
       <c r="D59" s="5"/>
-      <c r="AY59" s="6"/>
-    </row>
-    <row r="60" spans="4:51">
+      <c r="BG59" s="6"/>
+    </row>
+    <row r="60" spans="4:59">
       <c r="D60" s="5"/>
-      <c r="AY60" s="6"/>
-    </row>
-    <row r="61" spans="4:51">
+      <c r="BG60" s="6"/>
+    </row>
+    <row r="61" spans="4:59">
       <c r="D61" s="5"/>
-      <c r="AY61" s="6"/>
-    </row>
-    <row r="62" spans="4:51">
+      <c r="BG61" s="6"/>
+    </row>
+    <row r="62" spans="4:59">
       <c r="D62" s="5"/>
-      <c r="AY62" s="6"/>
-    </row>
-    <row r="63" spans="4:51">
+      <c r="BG62" s="6"/>
+    </row>
+    <row r="63" spans="4:59">
       <c r="D63" s="5"/>
-      <c r="AY63" s="6"/>
-    </row>
-    <row r="64" spans="4:51">
+      <c r="BG63" s="6"/>
+    </row>
+    <row r="64" spans="4:59">
       <c r="D64" s="5"/>
-      <c r="AY64" s="6"/>
-    </row>
-    <row r="65" spans="4:51">
+      <c r="BG64" s="6"/>
+    </row>
+    <row r="65" spans="4:59">
       <c r="D65" s="5"/>
-      <c r="AY65" s="6"/>
-    </row>
-    <row r="66" spans="4:51">
+      <c r="BG65" s="6"/>
+    </row>
+    <row r="66" spans="4:59">
       <c r="D66" s="5"/>
-      <c r="AY66" s="6"/>
-    </row>
-    <row r="67" spans="4:51">
+      <c r="BG66" s="6"/>
+    </row>
+    <row r="67" spans="4:59">
       <c r="D67" s="5"/>
-      <c r="AY67" s="6"/>
-    </row>
-    <row r="68" spans="4:51">
+      <c r="BG67" s="6"/>
+    </row>
+    <row r="68" spans="4:59">
       <c r="D68" s="5"/>
-      <c r="AY68" s="6"/>
-    </row>
-    <row r="69" spans="4:51">
+      <c r="BG68" s="6"/>
+    </row>
+    <row r="69" spans="4:59">
       <c r="D69" s="5"/>
-      <c r="AY69" s="6"/>
-    </row>
-    <row r="70" spans="4:51">
+      <c r="BG69" s="6"/>
+    </row>
+    <row r="70" spans="4:59">
       <c r="D70" s="5"/>
-      <c r="AY70" s="6"/>
-    </row>
-    <row r="71" spans="4:51">
+      <c r="BG70" s="6"/>
+    </row>
+    <row r="71" spans="4:59">
       <c r="D71" s="5"/>
-      <c r="AY71" s="6"/>
-    </row>
-    <row r="72" spans="4:51">
+      <c r="BG71" s="6"/>
+    </row>
+    <row r="72" spans="4:59">
       <c r="D72" s="5"/>
-      <c r="AY72" s="6"/>
-    </row>
-    <row r="73" spans="4:51">
+      <c r="BG72" s="6"/>
+    </row>
+    <row r="73" spans="4:59">
       <c r="D73" s="5"/>
-      <c r="AY73" s="6"/>
-    </row>
-    <row r="74" spans="4:51">
+      <c r="BG73" s="6"/>
+    </row>
+    <row r="74" spans="4:59">
       <c r="D74" s="5"/>
-      <c r="AY74" s="6"/>
-    </row>
-    <row r="75" spans="4:51">
+      <c r="BG74" s="6"/>
+    </row>
+    <row r="75" spans="4:59">
       <c r="D75" s="5"/>
-      <c r="AY75" s="6"/>
-    </row>
-    <row r="76" spans="4:51">
+      <c r="BG75" s="6"/>
+    </row>
+    <row r="76" spans="4:59">
       <c r="D76" s="5"/>
-      <c r="AY76" s="6"/>
-    </row>
-    <row r="77" spans="4:51">
+      <c r="BG76" s="6"/>
+    </row>
+    <row r="77" spans="4:59">
       <c r="D77" s="5"/>
-      <c r="AY77" s="6"/>
-    </row>
-    <row r="78" spans="4:51">
+      <c r="BG77" s="6"/>
+    </row>
+    <row r="78" spans="4:59">
       <c r="D78" s="5"/>
-      <c r="AY78" s="6"/>
-    </row>
-    <row r="79" spans="4:51">
+      <c r="BG78" s="6"/>
+    </row>
+    <row r="79" spans="4:59">
       <c r="D79" s="5"/>
-      <c r="AY79" s="6"/>
-    </row>
-    <row r="80" spans="4:51">
+      <c r="BG79" s="6"/>
+    </row>
+    <row r="80" spans="4:59">
       <c r="D80" s="5"/>
-      <c r="AY80" s="6"/>
-    </row>
-    <row r="81" spans="4:51">
+      <c r="BG80" s="6"/>
+    </row>
+    <row r="81" spans="4:59">
       <c r="D81" s="5"/>
-      <c r="AY81" s="6"/>
-    </row>
-    <row r="82" spans="4:51" ht="158" customHeight="1" thickBot="1">
+      <c r="BG81" s="6"/>
+    </row>
+    <row r="82" spans="4:59" ht="158" customHeight="1" thickBot="1">
       <c r="D82" s="7"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
@@ -3316,7 +3345,15 @@
       <c r="AV82" s="8"/>
       <c r="AW82" s="8"/>
       <c r="AX82" s="8"/>
-      <c r="AY82" s="9"/>
+      <c r="AY82" s="8"/>
+      <c r="AZ82" s="8"/>
+      <c r="BA82" s="8"/>
+      <c r="BB82" s="8"/>
+      <c r="BC82" s="8"/>
+      <c r="BD82" s="8"/>
+      <c r="BE82" s="8"/>
+      <c r="BF82" s="8"/>
+      <c r="BG82" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3330,7 +3367,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC997CAC-DDA5-4688-8BA4-1A61E1613524}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A102" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
